--- a/biology/Botanique/Gesneria/Gesneria.xlsx
+++ b/biology/Botanique/Gesneria/Gesneria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gesneria est un genre de plantes de la famille des Gesneriaceae. Ce genre comprend de nombreuses espèces herbacées d'Amérique tropicale, à fleurs tubulaires et racines le plus souvent tubéreuses. Ce genre typique des Gesnériacées a été décrit en 1753 par le naturaliste suédois Carl von Linné (1707-1778). En 1703, Charles Plumier avait nommé ce genre Gesnera en hommage au naturaliste suisse Conrad Gesner (1516-1565)[2], mais Linné l'a ensuite renommé Gesneria. L'espèce type est Gesneria humilis L.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gesneria est un genre de plantes de la famille des Gesneriaceae. Ce genre comprend de nombreuses espèces herbacées d'Amérique tropicale, à fleurs tubulaires et racines le plus souvent tubéreuses. Ce genre typique des Gesnériacées a été décrit en 1753 par le naturaliste suédois Carl von Linné (1707-1778). En 1703, Charles Plumier avait nommé ce genre Gesnera en hommage au naturaliste suisse Conrad Gesner (1516-1565), mais Linné l'a ensuite renommé Gesneria. L'espèce type est Gesneria humilis L.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN            (23 mai 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (23 mai 2017) :
 Gesneria hybr.
 Gesneria pauciflora Urb.
-Selon The Plant List            (23 mai 2017)[4] :
+Selon The Plant List            (23 mai 2017) :
 Gesneria acaulis L.
 Gesneria alpina (Urb.) Urb.
 Gesneria aspera Urb. &amp; Ekman
@@ -572,7 +586,7 @@
 Gesneria wrightii Urb.
 Gesneria zeziana Kitan.
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (23 mai 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (23 mai 2017) (Attention liste brute contenant possiblement des synonymes) :
 Gesneria acaulis L.
 Gesneria acrochordonanthe (L.E. Skog) Borhidi
 Gesneria acuminata Urb.
